--- a/resources/samples/evaluated-transcriptions/8_reviewed.xlsx
+++ b/resources/samples/evaluated-transcriptions/8_reviewed.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmchozas/Documents/GitHub/pacoia/resources/samples/evaluated-transcriptions/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FE4E72-E5A9-2D42-8ED2-217E9363FE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="28800" yWindow="-10800" windowWidth="51200" windowHeight="28800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,25 +25,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
-  <si>
-    <t xml:space="preserve">Grading the Introduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PACOIA Grade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The speech includes a specific sentence at the beginning of the presentation that intends to get the attention of the audience. This sentence is called “opener”, and these are some types and examples:
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+  <si>
+    <t>Grading the Introduction</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>PACOIA Grade</t>
+  </si>
+  <si>
+    <t>The speech includes a specific sentence at the beginning of the presentation that intends to get the attention of the audience. This sentence is called “opener”, and these are some types and examples:
 -	A statistic. For example: Did you know that 80% of the items we own are never used?
 -	A personal reference, personal story or anecdote. For example: When I was a kid, I always wanted to have a slide.
 -	An open and rhetorical question: What if we just stop wearing socks? 
 -	A joke: For example: I was going to tell a time-traveling joke during my speech, but you didn't like it.</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
+    <t>No</t>
   </si>
   <si>
     <r>
@@ -46,61 +51,55 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Aptos"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">The speech sets the theme or introduces the topic clearly within the first paragraph</t>
+      <t>The speech sets the theme or introduces the topic clearly within the first paragraph</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Aptos"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t> </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Aptos"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">of the speech. Normally, the speaker will refer to an application, a system, a service, or a website powered by AI. This mention could be a named entity. </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Yes</t>
+    <t>Yes</t>
   </si>
   <si>
     <t xml:space="preserve">The speech describes the outline of the presentation appropriately. Normally, the speaker mentions the different sections of the presentation, including State of the art (also named as Background, Literature Review or Related Work), Innovation, and Description or Methodology. </t>
   </si>
   <si>
-    <t xml:space="preserve">Grading the Background</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The speech refers to previous work. The speaker mentions related work in the field by other authors at least once. These mentions could refer to:
+    <t>Grading the Background</t>
+  </si>
+  <si>
+    <t>The speech refers to previous work. The speaker mentions related work in the field by other authors at least once. These mentions could refer to:
 -	Previous or related studies (research papers, surveys)
 -	Previous or related projects (initiatives, research projects, approaches)
 -	Similar applications (systems, services, products)</t>
   </si>
   <si>
-    <t xml:space="preserve">The speech mentions the limitations of previous approaches or existing solutions, such as the gaps, shortcomings, drawbacks, challenges or weaknesses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The speech contains mentions to visual supports, such as diagrams, graphs, figures, video, demo or statistics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grading the Innovation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The speech contains mentions to the key features that make the application innovative, including mentions to the novelty and originality of the service.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grading the Description</t>
+    <t>The speech mentions the limitations of previous approaches or existing solutions, such as the gaps, shortcomings, drawbacks, challenges or weaknesses.</t>
+  </si>
+  <si>
+    <t>The speech contains mentions to visual supports, such as diagrams, graphs, figures, video, demo or statistics.</t>
+  </si>
+  <si>
+    <t>Grading the Innovation</t>
+  </si>
+  <si>
+    <t>The speech contains mentions to the key features that make the application innovative, including mentions to the novelty and originality of the service.</t>
+  </si>
+  <si>
+    <t>Grading the Description</t>
   </si>
   <si>
     <t xml:space="preserve">The speech contains mentions to the architecture of the application. </t>
@@ -109,16 +108,16 @@
     <t xml:space="preserve">The speech contains mentions to the data flow, such as inputs and outputs of the modules, data sources, data bases, knowledge bases, files or corpus. </t>
   </si>
   <si>
-    <t xml:space="preserve">The speech contains mentions to the algorithms used, such as applications, services, APIs or libraries.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The speech mentions the limitations of the proposal, such as the gaps, shortcomings, drawbacks, challenges or weaknesses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The speech mentions the infrastructure required to deploy the application presented, such as CPU, GPU, servers, cloud services or cloud computing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grading the organisation</t>
+    <t>The speech contains mentions to the algorithms used, such as applications, services, APIs or libraries.</t>
+  </si>
+  <si>
+    <t>The speech mentions the limitations of the proposal, such as the gaps, shortcomings, drawbacks, challenges or weaknesses.</t>
+  </si>
+  <si>
+    <t>The speech mentions the infrastructure required to deploy the application presented, such as CPU, GPU, servers, cloud services or cloud computing.</t>
+  </si>
+  <si>
+    <t>Grading the organisation</t>
   </si>
   <si>
     <r>
@@ -126,8 +125,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Aptos"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">The speech contains at least 5 connecting devices and signposts, such as the ones provided </t>
     </r>
@@ -136,24 +133,20 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Aptos"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t> </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Aptos"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">in the list.</t>
+      <t>in the list.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ADD SIGNPOSTS</t>
+    <t>ADD SIGNPOSTS</t>
   </si>
   <si>
     <t xml:space="preserve">The speech is closed with a summary of the contribution or a mention of the objectives of the proposal. </t>
@@ -162,13 +155,13 @@
     <t xml:space="preserve">The speech contains an invitation to make questions. For instance: Thank you very much for listening, we are pleased to answer any question you may have. </t>
   </si>
   <si>
-    <t xml:space="preserve">Grading the language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The speech is formal. It does not contain slang, contractions, gap fillers or casual expressions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADD CONTRACTIONS, FILLERS, INFORMAL</t>
+    <t>Grading the language</t>
+  </si>
+  <si>
+    <t>The speech is formal. It does not contain slang, contractions, gap fillers or casual expressions.</t>
+  </si>
+  <si>
+    <t>ADD CONTRACTIONS, FILLERS, INFORMAL</t>
   </si>
   <si>
     <t xml:space="preserve">The speech employs “hedging” or tentative language. </t>
@@ -181,16 +174,19 @@
   </si>
   <si>
     <t xml:space="preserve">The speech is grammatically correct. It avoids incorrect expressions or invented terms. </t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -199,49 +195,26 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Aptos"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -253,7 +226,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -261,92 +234,376 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="80.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="80.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="80.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="80.5"/>
+    <col min="1" max="1" width="80.5" style="1"/>
+    <col min="2" max="2" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="1024" width="80.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -357,126 +614,165 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="116" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
@@ -484,31 +780,40 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
@@ -516,10 +821,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
@@ -527,29 +835,30 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>